--- a/docs/OVW Sheets/OVMDemo-RBenefits.xlsx
+++ b/docs/OVW Sheets/OVMDemo-RBenefits.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\Project Code\OVWMigration\docs\OVW Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 29\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="24000" windowHeight="9675" firstSheet="25" activeTab="37"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="24000" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="en_au" sheetId="1" r:id="rId1"/>
@@ -24,32 +24,34 @@
     <sheet name="fr_ch" sheetId="10" r:id="rId10"/>
     <sheet name="de_de" sheetId="11" r:id="rId11"/>
     <sheet name="da_dk" sheetId="12" r:id="rId12"/>
-    <sheet name="fr_dz" sheetId="14" r:id="rId13"/>
-    <sheet name="es_es" sheetId="15" r:id="rId14"/>
-    <sheet name="fr_fr" sheetId="16" r:id="rId15"/>
-    <sheet name="en_hk" sheetId="17" r:id="rId16"/>
-    <sheet name="zh_hk" sheetId="18" r:id="rId17"/>
-    <sheet name="en_il" sheetId="19" r:id="rId18"/>
-    <sheet name="en_in" sheetId="20" r:id="rId19"/>
-    <sheet name="it_it" sheetId="21" r:id="rId20"/>
-    <sheet name="ko_kr" sheetId="22" r:id="rId21"/>
-    <sheet name="en_ae" sheetId="24" r:id="rId22"/>
-    <sheet name="ar_ae" sheetId="25" r:id="rId23"/>
-    <sheet name="nl_nl" sheetId="26" r:id="rId24"/>
-    <sheet name="no_no" sheetId="27" r:id="rId25"/>
-    <sheet name="pl_pl" sheetId="28" r:id="rId26"/>
-    <sheet name="pt_pt" sheetId="29" r:id="rId27"/>
-    <sheet name="ru_ru" sheetId="30" r:id="rId28"/>
-    <sheet name="sv_se" sheetId="31" r:id="rId29"/>
-    <sheet name="en_sg" sheetId="32" r:id="rId30"/>
-    <sheet name="th_th" sheetId="33" r:id="rId31"/>
-    <sheet name="tr_tr" sheetId="34" r:id="rId32"/>
-    <sheet name="zh_tw" sheetId="35" r:id="rId33"/>
-    <sheet name="ru_ua" sheetId="36" r:id="rId34"/>
-    <sheet name="en_gb" sheetId="37" r:id="rId35"/>
-    <sheet name="en_za" sheetId="38" r:id="rId36"/>
-    <sheet name="zh_cn" sheetId="39" r:id="rId37"/>
-    <sheet name="ja_jp" sheetId="40" r:id="rId38"/>
+    <sheet name="en_dz" sheetId="41" r:id="rId13"/>
+    <sheet name="fr_dz" sheetId="14" r:id="rId14"/>
+    <sheet name="es_es" sheetId="15" r:id="rId15"/>
+    <sheet name="fr_fr" sheetId="16" r:id="rId16"/>
+    <sheet name="en_hk" sheetId="17" r:id="rId17"/>
+    <sheet name="zh_hk" sheetId="18" r:id="rId18"/>
+    <sheet name="en_il" sheetId="19" r:id="rId19"/>
+    <sheet name="en_in" sheetId="20" r:id="rId20"/>
+    <sheet name="it_it" sheetId="21" r:id="rId21"/>
+    <sheet name="ko_kr" sheetId="22" r:id="rId22"/>
+    <sheet name="es_mx" sheetId="42" r:id="rId23"/>
+    <sheet name="en_ae" sheetId="24" r:id="rId24"/>
+    <sheet name="ar_ae" sheetId="25" r:id="rId25"/>
+    <sheet name="nl_nl" sheetId="26" r:id="rId26"/>
+    <sheet name="no_no" sheetId="27" r:id="rId27"/>
+    <sheet name="pl_pl" sheetId="28" r:id="rId28"/>
+    <sheet name="pt_pt" sheetId="29" r:id="rId29"/>
+    <sheet name="ru_ru" sheetId="30" r:id="rId30"/>
+    <sheet name="sv_se" sheetId="31" r:id="rId31"/>
+    <sheet name="en_sg" sheetId="32" r:id="rId32"/>
+    <sheet name="th_th" sheetId="33" r:id="rId33"/>
+    <sheet name="tr_tr" sheetId="34" r:id="rId34"/>
+    <sheet name="zh_tw" sheetId="35" r:id="rId35"/>
+    <sheet name="ru_ua" sheetId="36" r:id="rId36"/>
+    <sheet name="en_gb" sheetId="37" r:id="rId37"/>
+    <sheet name="en_za" sheetId="38" r:id="rId38"/>
+    <sheet name="zh_cn" sheetId="39" r:id="rId39"/>
+    <sheet name="ja_jp" sheetId="40" r:id="rId40"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="117">
   <si>
     <t>http://www.cisco.com/web/ANZ/products/switches/benefits.html</t>
   </si>
@@ -289,6 +291,129 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/CH/fr/products/switches/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ANZ/products/unified_computing/benefits.html</t>
+  </si>
+  <si>
+    <t>servers-unified-computing</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/AT/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/fr/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/nl/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BR/produtos/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CA/products/unified_computing/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CA/products/unified_computing/benefits_fr.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CH/de/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CH/fr/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/unified_computing/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DK/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EA/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EA/products/FR/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ES/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/tc/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IL/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IN/products/unified_computing/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IT/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/KR/products/pc/unified_computing/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LA/productos/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ME/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ME/ar/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/NL/producten/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/NO/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/PL/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/PT/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SE/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SG/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TH/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TR/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TW/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/UA/products/uc/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/cisco/web/UK/products/unified_computing/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ZA/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CN/products/products_netsol/ucs/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/JP/product/hs/ucs/benefits.html</t>
   </si>
 </sst>
 </file>
@@ -652,14 +777,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -686,15 +811,24 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+      <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -703,14 +837,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,12 +870,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -749,17 +892,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -784,10 +927,22 @@
         <v>73</v>
       </c>
     </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://www.cisco.com/web/DE/products/unified_computing/solutions.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -798,14 +953,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,12 +986,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -844,17 +1008,51 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="72.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,30 +1078,39 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="69.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -929,30 +1136,39 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="70.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -978,30 +1194,39 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="69.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,28 +1252,37 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.85546875" customWidth="1"/>
+      <c r="A3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1076,30 +1310,39 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="66.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+      <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1124,28 +1367,98 @@
         <v>73</v>
       </c>
     </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1170,77 +1483,38 @@
         <v>73</v>
       </c>
     </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="68.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://www.cisco.com/web/IN/products/unified_computing/services.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1265,28 +1539,40 @@
         <v>73</v>
       </c>
     </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1311,27 +1597,73 @@
         <v>73</v>
       </c>
     </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://www.cisco.com/web/KR/products/pc/unified_computing/services.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.5703125" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1357,28 +1689,40 @@
         <v>73</v>
       </c>
     </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="68.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,28 +1747,40 @@
         <v>73</v>
       </c>
     </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1450,30 +1806,39 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+      <c r="A3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,30 +1864,39 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1548,30 +1922,39 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="74.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,30 +1980,97 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="74.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1646,7 +2096,15 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1661,24 +2119,25 @@
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,79 +2163,39 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="A3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="68.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,7 +2221,15 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1817,24 +2244,25 @@
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1860,30 +2288,39 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="A3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="67" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,7 +2346,15 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1924,24 +2369,25 @@
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,30 +2413,39 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="71.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+      <c r="A3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2016,28 +2471,37 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="76.28515625" bestFit="1" customWidth="1"/>
+      <c r="A3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2065,30 +2529,39 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A1" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="68.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://www.cisco.com/cisco/web/UK/products/unified_computing/services.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2114,30 +2587,39 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
+      <c r="A3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,23 +2645,90 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,61 +2761,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+      <c r="A3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2277,7 +2786,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,12 +2819,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2326,12 +2844,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2359,12 +2877,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2372,10 +2899,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,10 +2934,22 @@
         <v>73</v>
       </c>
     </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2418,16 +2957,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2453,10 +2992,22 @@
         <v>73</v>
       </c>
     </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2467,13 +3018,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2500,12 +3051,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
